--- a/HospitalManagementSystem/HospitalManagementSystem/target/classes/Appointments.xlsx
+++ b/HospitalManagementSystem/HospitalManagementSystem/target/classes/Appointments.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jason/eclipse-workspace/HospitalManagementSystem/src/main/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NTU\Y2S1\SC2002\HospitalManagementSystem_Final\HospitalManagementSystem\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4EF546A-5FE0-344C-BF01-CC9661CC68DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3CDA4AC-B403-45A0-9A0A-D6A39C530D1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
     <t>P1001</t>
   </si>
   <si>
-    <t>18-Nov-2024 2:00:00 pm</t>
+    <t>18-Nov-2024 2:00:00 PM</t>
   </si>
   <si>
     <t>COMPLETED</t>
@@ -58,7 +58,7 @@
     <t>FREE</t>
   </si>
   <si>
-    <t>18-Nov-2024 4:00:00 pm</t>
+    <t>20-Nov-2024 5:00:00 PM</t>
   </si>
 </sst>
 </file>
@@ -69,7 +69,7 @@
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -124,39 +124,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -208,7 +208,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -319,13 +319,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -334,6 +327,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -398,11 +398,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -413,12 +433,12 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -435,7 +455,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -452,7 +472,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
